--- a/Mishberech/MishBerech.xlsx
+++ b/Mishberech/MishBerech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTM\python\msutils\Mishberech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1041C9D-E7A9-417E-9085-7D1F0F3DFF2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33047CBF-A88A-486E-BF5F-5A3FE78ED34D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{90422A7B-9DA7-4DD5-B2C5-D83D49DD6A73}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" activeTab="1" xr2:uid="{90422A7B-9DA7-4DD5-B2C5-D83D49DD6A73}"/>
   </bookViews>
   <sheets>
     <sheet name="Updates" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
   <si>
     <t>Misheberach list</t>
   </si>
@@ -115,12 +115,6 @@
     <t>Leah bat Sheina Itah</t>
   </si>
   <si>
-    <t>Dean Solomon</t>
-  </si>
-  <si>
-    <t>Yehudah Aryeh ben Sarah</t>
-  </si>
-  <si>
     <t>Email Dec 24</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Elka bas Lima</t>
   </si>
   <si>
-    <t>Aviva Nashama ben Sarah</t>
-  </si>
-  <si>
     <t>Steven Dubois</t>
   </si>
   <si>
@@ -227,9 +218,6 @@
   </si>
   <si>
     <t>israel.d.gale@gmail.com </t>
-  </si>
-  <si>
-    <t>deansolomon@rcn.com </t>
   </si>
   <si>
     <t>garydp@fastmail.com </t>
@@ -270,7 +258,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -488,7 +476,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -804,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9238DDAD-9B68-46FA-9D94-640A604216C3}">
-  <dimension ref="B1:F37"/>
+  <dimension ref="B1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -841,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -867,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -893,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -910,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -927,7 +915,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -944,7 +932,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -961,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -978,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -995,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1012,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1029,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1046,7 +1034,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1063,46 +1051,46 @@
         <v>7</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="C18" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="D18" s="10">
-        <v>43314</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>28</v>
+        <v>43346</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="10">
-        <v>43346</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>7</v>
+        <v>43347</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>32</v>
@@ -1111,126 +1099,126 @@
         <v>43347</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="10">
         <v>43347</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="10">
-        <v>43347</v>
+        <v>43458</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="10">
+        <v>43381</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="10">
-        <v>43451</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="F23" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="10">
+        <v>43410</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D24" s="10">
-        <v>43458</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="10">
-        <v>43381</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>28</v>
+        <v>43410</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="D26" s="10">
-        <v>43410</v>
+        <v>43425</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="10">
-        <v>43410</v>
+        <v>43430</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>68</v>
@@ -1238,160 +1226,126 @@
     </row>
     <row r="28" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="10">
-        <v>43425</v>
+        <v>43447</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43452</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="10">
-        <v>43430</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="F29" s="19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="18" t="s">
         <v>47</v>
       </c>
+      <c r="C30" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="D30" s="10">
-        <v>43447</v>
+        <v>43458</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="10">
-        <v>43452</v>
+        <v>43458</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D32" s="10">
         <v>43458</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="10">
         <v>43458</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="10">
         <v>43458</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="10">
-        <v>43458</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="10">
-        <v>43458</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="20">
-        <v>43458</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="20">
+        <v>43461</v>
       </c>
     </row>
   </sheetData>
@@ -1401,41 +1355,42 @@
     <hyperlink ref="F7" r:id="rId3" display="mailto:adamossip@gmail.com" xr:uid="{9AD0D557-856C-493F-B3FB-1CB15D54E063}"/>
     <hyperlink ref="F8" r:id="rId4" display="mailto:adamossip@gmail.com" xr:uid="{CE266499-7736-423E-B7AF-82AB96714421}"/>
     <hyperlink ref="F17" r:id="rId5" display="mailto:adamossip@gmail.com" xr:uid="{F78E552A-E86A-48B5-B3EA-2E4AB2F6EAA5}"/>
-    <hyperlink ref="F28" r:id="rId6" display="mailto:robertehousman@gmail.com" xr:uid="{9649E614-D4A1-418E-980F-53E103DD538D}"/>
+    <hyperlink ref="F26" r:id="rId6" display="mailto:robertehousman@gmail.com" xr:uid="{9649E614-D4A1-418E-980F-53E103DD538D}"/>
     <hyperlink ref="F10" r:id="rId7" display="mailto:vrflash@gmail.com" xr:uid="{FF16932E-62BE-4B41-BC17-4D18425E0C24}"/>
     <hyperlink ref="F15" r:id="rId8" display="mailto:anngeller@gmail.com" xr:uid="{9F61876E-9ADD-4803-A029-8C267C384860}"/>
     <hyperlink ref="F13" r:id="rId9" display="mailto:tamarking@gmail.com" xr:uid="{07914EAE-9BE4-4258-8341-DD8CE46B3F54}"/>
     <hyperlink ref="F14" r:id="rId10" display="mailto:tamarking@gmail.com" xr:uid="{F9B7DCE6-AA0C-40DC-880A-58C01AB8D642}"/>
     <hyperlink ref="F16" r:id="rId11" display="mailto:agilson1234@msn.com" xr:uid="{EBD15E16-2821-4AEF-A4EE-E25FF56769F4}"/>
-    <hyperlink ref="F19" r:id="rId12" display="mailto:israel.d.gale@gmail.com" xr:uid="{DC695038-8920-4D34-B76B-1C32BA8F3C48}"/>
-    <hyperlink ref="F18" r:id="rId13" display="mailto:deansolomon@rcn.com" xr:uid="{EB70532F-EFF9-4343-9FB9-DC0DB64F7F63}"/>
-    <hyperlink ref="F23" r:id="rId14" display="mailto:deansolomon@rcn.com" xr:uid="{C6D0D8D4-1C76-4B62-9885-7F2F62BF8540}"/>
-    <hyperlink ref="F11" r:id="rId15" display="mailto:garydp@fastmail.com" xr:uid="{CF79A20F-5A21-4C97-B7BF-D92F09952777}"/>
-    <hyperlink ref="F24" r:id="rId16" display="mailto:srd2725@gmail.com" xr:uid="{B84F5A08-6F9D-446D-8ADC-7988272E3C60}"/>
-    <hyperlink ref="F25" r:id="rId17" display="mailto:jnb821@rcn.com" xr:uid="{53440A7D-DAD0-4C36-902E-4B17F6193603}"/>
-    <hyperlink ref="F26" r:id="rId18" display="mailto:mariya.nudel@gmail.com" xr:uid="{4146CAC3-0F7E-4356-BCEF-22AA2FAB9B68}"/>
-    <hyperlink ref="F27" r:id="rId19" display="mailto:mariya.nudel@gmail.com" xr:uid="{728CC745-E795-4D87-887D-3BBB955B653A}"/>
-    <hyperlink ref="F31" r:id="rId20" display="mailto:yadinoe@gmail.com" xr:uid="{D71E9E20-E3F8-457C-9EAF-E9E4FD4324CF}"/>
-    <hyperlink ref="F30" r:id="rId21" display="mailto:healingmindfully@gmail.com" xr:uid="{3148726A-4AA3-46F1-9B00-1C243A1F2E2A}"/>
-    <hyperlink ref="F29" r:id="rId22" display="mailto:sara.michael.salzberg@gmail.com" xr:uid="{D3D20756-7BFC-4BD6-A19B-D1C27D110D73}"/>
-    <hyperlink ref="F9" r:id="rId23" display="mailto:robertehousman@gmail.com" xr:uid="{62C67905-AD4E-4B7C-89BC-0D8F00BC1DF3}"/>
+    <hyperlink ref="F18" r:id="rId12" display="mailto:israel.d.gale@gmail.com" xr:uid="{DC695038-8920-4D34-B76B-1C32BA8F3C48}"/>
+    <hyperlink ref="F11" r:id="rId13" display="mailto:garydp@fastmail.com" xr:uid="{CF79A20F-5A21-4C97-B7BF-D92F09952777}"/>
+    <hyperlink ref="F22" r:id="rId14" display="mailto:srd2725@gmail.com" xr:uid="{B84F5A08-6F9D-446D-8ADC-7988272E3C60}"/>
+    <hyperlink ref="F23" r:id="rId15" display="mailto:jnb821@rcn.com" xr:uid="{53440A7D-DAD0-4C36-902E-4B17F6193603}"/>
+    <hyperlink ref="F24" r:id="rId16" display="mailto:mariya.nudel@gmail.com" xr:uid="{4146CAC3-0F7E-4356-BCEF-22AA2FAB9B68}"/>
+    <hyperlink ref="F25" r:id="rId17" display="mailto:mariya.nudel@gmail.com" xr:uid="{728CC745-E795-4D87-887D-3BBB955B653A}"/>
+    <hyperlink ref="F29" r:id="rId18" display="mailto:yadinoe@gmail.com" xr:uid="{D71E9E20-E3F8-457C-9EAF-E9E4FD4324CF}"/>
+    <hyperlink ref="F28" r:id="rId19" display="mailto:healingmindfully@gmail.com" xr:uid="{3148726A-4AA3-46F1-9B00-1C243A1F2E2A}"/>
+    <hyperlink ref="F27" r:id="rId20" display="mailto:sara.michael.salzberg@gmail.com" xr:uid="{D3D20756-7BFC-4BD6-A19B-D1C27D110D73}"/>
+    <hyperlink ref="F9" r:id="rId21" display="mailto:robertehousman@gmail.com" xr:uid="{62C67905-AD4E-4B7C-89BC-0D8F00BC1DF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF342225-7833-445C-BE48-B1FD2F133D14}">
-  <dimension ref="B1:E37"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
@@ -1702,39 +1657,39 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="7" t="str">
         <f>Updates!B18</f>
-        <v>Dean Solomon</v>
-      </c>
-      <c r="C18" s="8" t="str">
+        <v>Yisroel Gale</v>
+      </c>
+      <c r="C18" s="15" t="str">
         <f>Updates!C18</f>
-        <v>Yehudah Aryeh ben Sarah</v>
+        <v>יוכבד בת חיה רבקה</v>
       </c>
       <c r="D18" s="10">
         <f>Updates!D18</f>
-        <v>43314</v>
-      </c>
-      <c r="E18" s="8" t="str">
+        <v>43346</v>
+      </c>
+      <c r="E18" s="11" t="str">
         <f>Updates!E18</f>
-        <v>Email Dec 24</v>
+        <v>Leave on list</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="str">
         <f>Updates!B19</f>
-        <v>Yisroel Gale</v>
-      </c>
-      <c r="C19" s="15" t="str">
+        <v>Elizabeth Tuton</v>
+      </c>
+      <c r="C19" s="8" t="str">
         <f>Updates!C19</f>
-        <v>יוכבד בת חיה רבקה</v>
+        <v>Baruch ben Gesya</v>
       </c>
       <c r="D19" s="10">
         <f>Updates!D19</f>
-        <v>43346</v>
-      </c>
-      <c r="E19" s="11" t="str">
+        <v>43347</v>
+      </c>
+      <c r="E19" s="17" t="str">
         <f>Updates!E19</f>
-        <v>Leave on list</v>
+        <v>?</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1744,7 +1699,7 @@
       </c>
       <c r="C20" s="8" t="str">
         <f>Updates!C20</f>
-        <v>Baruch ben Gesya</v>
+        <v>Nachema Zissel bas Malka Leah</v>
       </c>
       <c r="D20" s="10">
         <f>Updates!D20</f>
@@ -1762,7 +1717,7 @@
       </c>
       <c r="C21" s="8" t="str">
         <f>Updates!C21</f>
-        <v>Nachema Zissel bas Malka Leah</v>
+        <v>Elka bas Lima</v>
       </c>
       <c r="D21" s="10">
         <f>Updates!D21</f>
@@ -1776,51 +1731,51 @@
     <row r="22" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="str">
         <f>Updates!B22</f>
-        <v>Elizabeth Tuton</v>
+        <v>Steven Dubois</v>
       </c>
       <c r="C22" s="8" t="str">
         <f>Updates!C22</f>
-        <v>Elka bas Lima</v>
+        <v>Liora Shifra bas Bin</v>
       </c>
       <c r="D22" s="10">
         <f>Updates!D22</f>
-        <v>43347</v>
+        <v>43458</v>
       </c>
       <c r="E22" s="17" t="str">
         <f>Updates!E22</f>
-        <v>?</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="16" t="str">
         <f>Updates!B23</f>
-        <v>Dean Solomon</v>
+        <v>Judy Brooks</v>
       </c>
       <c r="C23" s="8" t="str">
         <f>Updates!C23</f>
-        <v>Aviva Nashama ben Sarah</v>
+        <v>Yehudit Naomi bat Nechama</v>
       </c>
       <c r="D23" s="10">
         <f>Updates!D23</f>
-        <v>43451</v>
-      </c>
-      <c r="E23" s="17" t="str">
+        <v>43381</v>
+      </c>
+      <c r="E23" s="8" t="str">
         <f>Updates!E23</f>
-        <v xml:space="preserve">  </v>
+        <v>Email Dec 24</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="str">
         <f>Updates!B24</f>
-        <v>Steven Dubois</v>
+        <v>Marina Nudel</v>
       </c>
       <c r="C24" s="8" t="str">
         <f>Updates!C24</f>
-        <v>Liora Shifra bas Bin</v>
+        <v>Yosef Chaim ben Sarah</v>
       </c>
       <c r="D24" s="10">
         <f>Updates!D24</f>
-        <v>43458</v>
+        <v>43410</v>
       </c>
       <c r="E24" s="17" t="str">
         <f>Updates!E24</f>
@@ -1828,35 +1783,35 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="str">
+      <c r="B25" s="7" t="str">
         <f>Updates!B25</f>
-        <v>Judy Brooks</v>
+        <v>Marina Nudel</v>
       </c>
       <c r="C25" s="8" t="str">
         <f>Updates!C25</f>
-        <v>Yehudit Naomi bat Nechama</v>
+        <v>Chana Esther bat Jane</v>
       </c>
       <c r="D25" s="10">
         <f>Updates!D25</f>
-        <v>43381</v>
-      </c>
-      <c r="E25" s="8" t="str">
+        <v>43410</v>
+      </c>
+      <c r="E25" s="17" t="str">
         <f>Updates!E25</f>
-        <v>Email Dec 24</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="str">
         <f>Updates!B26</f>
-        <v>Marina Nudel</v>
-      </c>
-      <c r="C26" s="8" t="str">
+        <v>Robert Housman</v>
+      </c>
+      <c r="C26" s="15" t="str">
         <f>Updates!C26</f>
-        <v>Yosef Chaim ben Sarah</v>
+        <v>נחוּם יוֹסף בּן חנה</v>
       </c>
       <c r="D26" s="10">
         <f>Updates!D26</f>
-        <v>43410</v>
+        <v>43425</v>
       </c>
       <c r="E26" s="17" t="str">
         <f>Updates!E26</f>
@@ -1866,15 +1821,15 @@
     <row r="27" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="str">
         <f>Updates!B27</f>
-        <v>Marina Nudel</v>
+        <v>Sara &amp; Michael Salzberg</v>
       </c>
       <c r="C27" s="8" t="str">
         <f>Updates!C27</f>
-        <v>Chana Esther bat Jane</v>
+        <v>Rachel Kreindel bat Baila</v>
       </c>
       <c r="D27" s="10">
         <f>Updates!D27</f>
-        <v>43410</v>
+        <v>43430</v>
       </c>
       <c r="E27" s="17" t="str">
         <f>Updates!E27</f>
@@ -1884,15 +1839,15 @@
     <row r="28" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="str">
         <f>Updates!B28</f>
-        <v>Robert Housman</v>
-      </c>
-      <c r="C28" s="15" t="str">
+        <v>Ayla Rapoport</v>
+      </c>
+      <c r="C28" s="18" t="str">
         <f>Updates!C28</f>
-        <v>נחוּם יוֹסף בּן חנה</v>
+        <v>Mordechai ben Sara Dina</v>
       </c>
       <c r="D28" s="10">
         <f>Updates!D28</f>
-        <v>43425</v>
+        <v>43447</v>
       </c>
       <c r="E28" s="17" t="str">
         <f>Updates!E28</f>
@@ -1902,15 +1857,15 @@
     <row r="29" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="str">
         <f>Updates!B29</f>
-        <v>Sara &amp; Michael Salzberg</v>
-      </c>
-      <c r="C29" s="8" t="str">
+        <v>Steffi Berke</v>
+      </c>
+      <c r="C29" s="18" t="str">
         <f>Updates!C29</f>
-        <v>Rachel Kreindel bat Baila</v>
+        <v>Ephraim Ben Sara Rivka</v>
       </c>
       <c r="D29" s="10">
         <f>Updates!D29</f>
-        <v>43430</v>
+        <v>43452</v>
       </c>
       <c r="E29" s="17" t="str">
         <f>Updates!E29</f>
@@ -1920,15 +1875,15 @@
     <row r="30" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="str">
         <f>Updates!B30</f>
-        <v>Ayla Rapoport</v>
-      </c>
-      <c r="C30" s="18" t="str">
+        <v>Elizabeth Hutton</v>
+      </c>
+      <c r="C30" s="8" t="str">
         <f>Updates!C30</f>
-        <v>Mordechai ben Sara Dina</v>
+        <v>Malka Bat Blimah</v>
       </c>
       <c r="D30" s="10">
         <f>Updates!D30</f>
-        <v>43447</v>
+        <v>43458</v>
       </c>
       <c r="E30" s="17" t="str">
         <f>Updates!E30</f>
@@ -1938,15 +1893,15 @@
     <row r="31" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="str">
         <f>Updates!B31</f>
-        <v>Steffi Berke</v>
-      </c>
-      <c r="C31" s="18" t="str">
+        <v>Elizabeth Hutton</v>
+      </c>
+      <c r="C31" s="8" t="str">
         <f>Updates!C31</f>
-        <v>Ephraim Ben Sara Rivka</v>
+        <v>Rochel Bat Elkah</v>
       </c>
       <c r="D31" s="10">
         <f>Updates!D31</f>
-        <v>43452</v>
+        <v>43458</v>
       </c>
       <c r="E31" s="17" t="str">
         <f>Updates!E31</f>
@@ -1960,7 +1915,7 @@
       </c>
       <c r="C32" s="8" t="str">
         <f>Updates!C32</f>
-        <v>Malka Bat Blimah</v>
+        <v>Elka bas Malka</v>
       </c>
       <c r="D32" s="10">
         <f>Updates!D32</f>
@@ -1978,7 +1933,7 @@
       </c>
       <c r="C33" s="8" t="str">
         <f>Updates!C33</f>
-        <v>Rochel Bat Elkah</v>
+        <v>Moshe Ben Eva</v>
       </c>
       <c r="D33" s="10">
         <f>Updates!D33</f>
@@ -1996,7 +1951,7 @@
       </c>
       <c r="C34" s="8" t="str">
         <f>Updates!C34</f>
-        <v>Elka bas Malka</v>
+        <v>Craina bas Bayla</v>
       </c>
       <c r="D34" s="10">
         <f>Updates!D34</f>
@@ -2007,50 +1962,14 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="str">
+    <row r="35" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
         <f>Updates!B35</f>
-        <v>Elizabeth Hutton</v>
-      </c>
-      <c r="C35" s="8" t="str">
-        <f>Updates!C35</f>
-        <v>Moshe Ben Eva</v>
-      </c>
-      <c r="D35" s="10">
-        <f>Updates!D35</f>
-        <v>43458</v>
-      </c>
-      <c r="E35" s="17" t="str">
-        <f>Updates!E35</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="str">
-        <f>Updates!B36</f>
-        <v>Elizabeth Hutton</v>
-      </c>
-      <c r="C36" s="8" t="str">
-        <f>Updates!C36</f>
-        <v>Craina bas Bayla</v>
-      </c>
-      <c r="D36" s="10">
-        <f>Updates!D36</f>
-        <v>43458</v>
-      </c>
-      <c r="E36" s="17" t="str">
-        <f>Updates!E36</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
-        <f>Updates!B37</f>
-        <v>43458</v>
+        <v>43461</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup scale="98" fitToHeight="0" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mishberech/MishBerech.xlsx
+++ b/Mishberech/MishBerech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTM\python\msutils\Mishberech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTM\Documents\EMK\Mishberech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1041C9D-E7A9-417E-9085-7D1F0F3DFF2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E6C6AE-C79E-41A8-971C-A3B4EC500349}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{90422A7B-9DA7-4DD5-B2C5-D83D49DD6A73}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" activeTab="1" xr2:uid="{90422A7B-9DA7-4DD5-B2C5-D83D49DD6A73}"/>
   </bookViews>
   <sheets>
     <sheet name="Updates" sheetId="1" r:id="rId1"/>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9238DDAD-9B68-46FA-9D94-640A604216C3}">
   <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1401,24 +1401,24 @@
     <hyperlink ref="F7" r:id="rId3" display="mailto:adamossip@gmail.com" xr:uid="{9AD0D557-856C-493F-B3FB-1CB15D54E063}"/>
     <hyperlink ref="F8" r:id="rId4" display="mailto:adamossip@gmail.com" xr:uid="{CE266499-7736-423E-B7AF-82AB96714421}"/>
     <hyperlink ref="F17" r:id="rId5" display="mailto:adamossip@gmail.com" xr:uid="{F78E552A-E86A-48B5-B3EA-2E4AB2F6EAA5}"/>
-    <hyperlink ref="F28" r:id="rId6" display="mailto:robertehousman@gmail.com" xr:uid="{9649E614-D4A1-418E-980F-53E103DD538D}"/>
-    <hyperlink ref="F10" r:id="rId7" display="mailto:vrflash@gmail.com" xr:uid="{FF16932E-62BE-4B41-BC17-4D18425E0C24}"/>
-    <hyperlink ref="F15" r:id="rId8" display="mailto:anngeller@gmail.com" xr:uid="{9F61876E-9ADD-4803-A029-8C267C384860}"/>
-    <hyperlink ref="F13" r:id="rId9" display="mailto:tamarking@gmail.com" xr:uid="{07914EAE-9BE4-4258-8341-DD8CE46B3F54}"/>
-    <hyperlink ref="F14" r:id="rId10" display="mailto:tamarking@gmail.com" xr:uid="{F9B7DCE6-AA0C-40DC-880A-58C01AB8D642}"/>
-    <hyperlink ref="F16" r:id="rId11" display="mailto:agilson1234@msn.com" xr:uid="{EBD15E16-2821-4AEF-A4EE-E25FF56769F4}"/>
-    <hyperlink ref="F19" r:id="rId12" display="mailto:israel.d.gale@gmail.com" xr:uid="{DC695038-8920-4D34-B76B-1C32BA8F3C48}"/>
-    <hyperlink ref="F18" r:id="rId13" display="mailto:deansolomon@rcn.com" xr:uid="{EB70532F-EFF9-4343-9FB9-DC0DB64F7F63}"/>
-    <hyperlink ref="F23" r:id="rId14" display="mailto:deansolomon@rcn.com" xr:uid="{C6D0D8D4-1C76-4B62-9885-7F2F62BF8540}"/>
-    <hyperlink ref="F11" r:id="rId15" display="mailto:garydp@fastmail.com" xr:uid="{CF79A20F-5A21-4C97-B7BF-D92F09952777}"/>
-    <hyperlink ref="F24" r:id="rId16" display="mailto:srd2725@gmail.com" xr:uid="{B84F5A08-6F9D-446D-8ADC-7988272E3C60}"/>
-    <hyperlink ref="F25" r:id="rId17" display="mailto:jnb821@rcn.com" xr:uid="{53440A7D-DAD0-4C36-902E-4B17F6193603}"/>
-    <hyperlink ref="F26" r:id="rId18" display="mailto:mariya.nudel@gmail.com" xr:uid="{4146CAC3-0F7E-4356-BCEF-22AA2FAB9B68}"/>
-    <hyperlink ref="F27" r:id="rId19" display="mailto:mariya.nudel@gmail.com" xr:uid="{728CC745-E795-4D87-887D-3BBB955B653A}"/>
-    <hyperlink ref="F31" r:id="rId20" display="mailto:yadinoe@gmail.com" xr:uid="{D71E9E20-E3F8-457C-9EAF-E9E4FD4324CF}"/>
-    <hyperlink ref="F30" r:id="rId21" display="mailto:healingmindfully@gmail.com" xr:uid="{3148726A-4AA3-46F1-9B00-1C243A1F2E2A}"/>
-    <hyperlink ref="F29" r:id="rId22" display="mailto:sara.michael.salzberg@gmail.com" xr:uid="{D3D20756-7BFC-4BD6-A19B-D1C27D110D73}"/>
-    <hyperlink ref="F9" r:id="rId23" display="mailto:robertehousman@gmail.com" xr:uid="{62C67905-AD4E-4B7C-89BC-0D8F00BC1DF3}"/>
+    <hyperlink ref="F9" r:id="rId6" display="mailto:robertehousman@gmail.com" xr:uid="{62C67905-AD4E-4B7C-89BC-0D8F00BC1DF3}"/>
+    <hyperlink ref="F28" r:id="rId7" display="mailto:robertehousman@gmail.com" xr:uid="{9649E614-D4A1-418E-980F-53E103DD538D}"/>
+    <hyperlink ref="F10" r:id="rId8" display="mailto:vrflash@gmail.com" xr:uid="{FF16932E-62BE-4B41-BC17-4D18425E0C24}"/>
+    <hyperlink ref="F15" r:id="rId9" display="mailto:anngeller@gmail.com" xr:uid="{9F61876E-9ADD-4803-A029-8C267C384860}"/>
+    <hyperlink ref="F13" r:id="rId10" display="mailto:tamarking@gmail.com" xr:uid="{07914EAE-9BE4-4258-8341-DD8CE46B3F54}"/>
+    <hyperlink ref="F14" r:id="rId11" display="mailto:tamarking@gmail.com" xr:uid="{F9B7DCE6-AA0C-40DC-880A-58C01AB8D642}"/>
+    <hyperlink ref="F16" r:id="rId12" display="mailto:agilson1234@msn.com" xr:uid="{EBD15E16-2821-4AEF-A4EE-E25FF56769F4}"/>
+    <hyperlink ref="F19" r:id="rId13" display="mailto:israel.d.gale@gmail.com" xr:uid="{DC695038-8920-4D34-B76B-1C32BA8F3C48}"/>
+    <hyperlink ref="F18" r:id="rId14" display="mailto:deansolomon@rcn.com" xr:uid="{EB70532F-EFF9-4343-9FB9-DC0DB64F7F63}"/>
+    <hyperlink ref="F23" r:id="rId15" display="mailto:deansolomon@rcn.com" xr:uid="{C6D0D8D4-1C76-4B62-9885-7F2F62BF8540}"/>
+    <hyperlink ref="F11" r:id="rId16" display="mailto:garydp@fastmail.com" xr:uid="{CF79A20F-5A21-4C97-B7BF-D92F09952777}"/>
+    <hyperlink ref="F24" r:id="rId17" display="mailto:srd2725@gmail.com" xr:uid="{B84F5A08-6F9D-446D-8ADC-7988272E3C60}"/>
+    <hyperlink ref="F25" r:id="rId18" display="mailto:jnb821@rcn.com" xr:uid="{53440A7D-DAD0-4C36-902E-4B17F6193603}"/>
+    <hyperlink ref="F26" r:id="rId19" display="mailto:mariya.nudel@gmail.com" xr:uid="{4146CAC3-0F7E-4356-BCEF-22AA2FAB9B68}"/>
+    <hyperlink ref="F27" r:id="rId20" display="mailto:mariya.nudel@gmail.com" xr:uid="{728CC745-E795-4D87-887D-3BBB955B653A}"/>
+    <hyperlink ref="F31" r:id="rId21" display="mailto:yadinoe@gmail.com" xr:uid="{D71E9E20-E3F8-457C-9EAF-E9E4FD4324CF}"/>
+    <hyperlink ref="F30" r:id="rId22" display="mailto:healingmindfully@gmail.com" xr:uid="{3148726A-4AA3-46F1-9B00-1C243A1F2E2A}"/>
+    <hyperlink ref="F29" r:id="rId23" display="mailto:sara.michael.salzberg@gmail.com" xr:uid="{D3D20756-7BFC-4BD6-A19B-D1C27D110D73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId24"/>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF342225-7833-445C-BE48-B1FD2F133D14}">
   <dimension ref="B1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2051,6 +2051,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>